--- a/data/us/20-08-29  world o meter adjusted covid cases by state.xlsx
+++ b/data/us/20-08-29  world o meter adjusted covid cases by state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/us/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{D474A103-C146-4598-B31F-72A8345F7D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{085FD54A-917D-41CE-B4A1-6CF6068DBB9B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{D474A103-C146-4598-B31F-72A8345F7D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D035C01B-BD87-47A7-B136-F16F2EF93F3A}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="-21000" windowWidth="24045" windowHeight="20295" activeTab="3" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
+    <workbookView xWindow="4290" yWindow="-21000" windowWidth="24045" windowHeight="20295" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Updates" sheetId="1" r:id="rId1"/>
@@ -777,14 +777,14 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB61549-E677-4976-9DCA-747A592A5594}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M5" sqref="B5:M59"/>
     </sheetView>
   </sheetViews>
@@ -1170,22 +1170,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
       <c r="S1" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="T1" s="4"/>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
     </row>
     <row r="2" spans="1:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="20" t="s">
@@ -3519,7 +3519,7 @@
       <c r="C59" s="58">
         <v>1118</v>
       </c>
-      <c r="D59" s="64">
+      <c r="D59" s="62">
         <v>43</v>
       </c>
       <c r="E59" s="59">
@@ -3548,57 +3548,57 @@
     <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://www.worldometers.info/coronavirus/usa/california/" xr:uid="{2E8D0EDA-0CE7-4898-AB4D-8D26A274C7ED}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.worldometers.info/coronavirus/usa/texas/" xr:uid="{9EA48B68-588E-4B56-B566-CE6A02E7780C}"/>
-    <hyperlink ref="B7" r:id="rId3" display="https://www.worldometers.info/coronavirus/usa/florida/" xr:uid="{14585016-1A6C-453C-954D-A3E6DB0EDD59}"/>
-    <hyperlink ref="B8" r:id="rId4" display="https://www.worldometers.info/coronavirus/usa/new-york/" xr:uid="{216F7439-0896-43B2-86CA-EA56FFE1FDDB}"/>
-    <hyperlink ref="B9" r:id="rId5" display="https://www.worldometers.info/coronavirus/usa/georgia/" xr:uid="{8ECB82D0-0C41-41E7-B0F5-E4F84199EDD0}"/>
-    <hyperlink ref="B10" r:id="rId6" display="https://www.worldometers.info/coronavirus/usa/illinois/" xr:uid="{98EE339D-978B-47C9-8DB5-61B910391341}"/>
-    <hyperlink ref="B11" r:id="rId7" display="https://www.worldometers.info/coronavirus/usa/arizona/" xr:uid="{AB5BA313-ED9A-4580-8E15-982F4AE752EE}"/>
-    <hyperlink ref="B12" r:id="rId8" display="https://www.worldometers.info/coronavirus/usa/new-jersey/" xr:uid="{059EA654-4F3D-43A9-B5A3-EC5FBD2C2821}"/>
-    <hyperlink ref="B13" r:id="rId9" display="https://www.worldometers.info/coronavirus/usa/north-carolina/" xr:uid="{06245944-9A24-4675-8A61-6E63E653C2D6}"/>
-    <hyperlink ref="B14" r:id="rId10" display="https://www.worldometers.info/coronavirus/usa/tennessee/" xr:uid="{52694194-B4EF-430E-95E0-B5FC96DD3B36}"/>
-    <hyperlink ref="B15" r:id="rId11" display="https://www.worldometers.info/coronavirus/usa/louisiana/" xr:uid="{A3C4EFAA-29B1-4FE2-8536-112D0AEE6E0A}"/>
-    <hyperlink ref="B16" r:id="rId12" display="https://www.worldometers.info/coronavirus/usa/pennsylvania/" xr:uid="{B88DAB58-1B2F-4041-AE3E-5380A8AE8B57}"/>
-    <hyperlink ref="B17" r:id="rId13" display="https://www.worldometers.info/coronavirus/usa/massachusetts/" xr:uid="{723DB7BE-9A2A-4135-8E8E-88FC7BCDBC89}"/>
-    <hyperlink ref="B18" r:id="rId14" display="https://www.worldometers.info/coronavirus/usa/alabama/" xr:uid="{8901CBD4-4DD1-4EEF-AE98-F6D3C9EFF275}"/>
-    <hyperlink ref="B19" r:id="rId15" display="https://www.worldometers.info/coronavirus/usa/ohio/" xr:uid="{E8C0199B-6F6B-4778-87FF-F61CA9BCFD09}"/>
-    <hyperlink ref="B20" r:id="rId16" display="https://www.worldometers.info/coronavirus/usa/virginia/" xr:uid="{F52D1D82-EAED-4FA3-9821-0F818073C33B}"/>
-    <hyperlink ref="B21" r:id="rId17" display="https://www.worldometers.info/coronavirus/usa/south-carolina/" xr:uid="{A94714EE-4C77-4991-9832-5F066733F8CA}"/>
-    <hyperlink ref="B22" r:id="rId18" display="https://www.worldometers.info/coronavirus/usa/michigan/" xr:uid="{BB920D38-13E3-4AEF-9D86-779F4F06784A}"/>
-    <hyperlink ref="B23" r:id="rId19" display="https://www.worldometers.info/coronavirus/usa/maryland/" xr:uid="{EF9EDFF2-D8C4-46DB-BC3F-3B0BF6E24278}"/>
-    <hyperlink ref="B24" r:id="rId20" display="https://www.worldometers.info/coronavirus/usa/indiana/" xr:uid="{948F6206-6D5C-4658-A9F3-0AC0B489E52E}"/>
-    <hyperlink ref="B25" r:id="rId21" display="https://www.worldometers.info/coronavirus/usa/missouri/" xr:uid="{5D4467B5-D06B-4240-87C4-60214FBAE554}"/>
-    <hyperlink ref="B26" r:id="rId22" display="https://www.worldometers.info/coronavirus/usa/mississippi/" xr:uid="{4BF8AE46-9478-4D28-82E0-0A9D621A9164}"/>
-    <hyperlink ref="B27" r:id="rId23" display="https://www.worldometers.info/coronavirus/usa/washington/" xr:uid="{4E64B217-698D-49A1-A2F2-1A84EA952E26}"/>
-    <hyperlink ref="B28" r:id="rId24" display="https://www.worldometers.info/coronavirus/usa/wisconsin/" xr:uid="{DE0281AF-BF03-448D-8D70-6EC819B01F26}"/>
-    <hyperlink ref="B29" r:id="rId25" display="https://www.worldometers.info/coronavirus/usa/minnesota/" xr:uid="{2CE4F559-AE76-43EE-85A3-2557B068A745}"/>
+    <hyperlink ref="B55" r:id="rId1" display="https://www.worldometers.info/coronavirus/usa/vermont/" xr:uid="{62E5C439-BDE5-4F6A-A345-74DAFBB63EB7}"/>
+    <hyperlink ref="B54" r:id="rId2" display="https://www.worldometers.info/coronavirus/usa/wyoming/" xr:uid="{FBBB00F5-D408-4BF9-B99C-85FD7905D25F}"/>
+    <hyperlink ref="B53" r:id="rId3" display="https://www.worldometers.info/coronavirus/usa/maine/" xr:uid="{FAE76A6D-37FB-4FD7-BCA6-4036329B8B53}"/>
+    <hyperlink ref="B52" r:id="rId4" display="https://www.worldometers.info/coronavirus/usa/alaska/" xr:uid="{5174D8B5-6315-4631-B169-02530ADA63CF}"/>
+    <hyperlink ref="B51" r:id="rId5" display="https://www.worldometers.info/coronavirus/usa/montana/" xr:uid="{20955AFA-6C77-4C17-9F51-155335BE7A71}"/>
+    <hyperlink ref="B50" r:id="rId6" display="https://www.worldometers.info/coronavirus/usa/new-hampshire/" xr:uid="{2660BA48-56B1-4035-84FF-24A2D28DAB28}"/>
+    <hyperlink ref="B49" r:id="rId7" display="https://www.worldometers.info/coronavirus/usa/hawaii/" xr:uid="{3D5409D0-65A3-4514-BD83-691333198323}"/>
+    <hyperlink ref="B48" r:id="rId8" display="https://www.worldometers.info/coronavirus/usa/west-virginia/" xr:uid="{BE4C3033-0850-4E31-973B-F37F955AEACD}"/>
+    <hyperlink ref="B47" r:id="rId9" display="https://www.worldometers.info/coronavirus/usa/north-dakota/" xr:uid="{1648C4FB-00D4-4742-9CE1-85DFEB87FB30}"/>
+    <hyperlink ref="B46" r:id="rId10" display="https://www.worldometers.info/coronavirus/usa/south-dakota/" xr:uid="{CAE002EE-935C-427E-AF78-9A979EFF7AFC}"/>
+    <hyperlink ref="B45" r:id="rId11" display="https://www.worldometers.info/coronavirus/usa/district-of-columbia/" xr:uid="{080FA22C-0DFA-459C-B359-31E889B154F3}"/>
+    <hyperlink ref="B44" r:id="rId12" display="https://www.worldometers.info/coronavirus/usa/delaware/" xr:uid="{21BB7D30-0554-4FF8-8CAB-04DF2AFDDB11}"/>
+    <hyperlink ref="B43" r:id="rId13" display="https://www.worldometers.info/coronavirus/usa/rhode-island/" xr:uid="{B3B41EE3-F6EE-4495-AB7D-E96D80B9A19A}"/>
+    <hyperlink ref="B42" r:id="rId14" display="https://www.worldometers.info/coronavirus/usa/new-mexico/" xr:uid="{7861103B-84DB-4DA1-A4D6-A18B918D85C9}"/>
+    <hyperlink ref="B41" r:id="rId15" display="https://www.worldometers.info/coronavirus/usa/oregon/" xr:uid="{9E329FED-8B70-4313-BE3C-9040DDDA20D1}"/>
+    <hyperlink ref="B40" r:id="rId16" display="https://www.worldometers.info/coronavirus/usa/idaho/" xr:uid="{98D55811-E92D-4072-AC33-B3C16ECF0D97}"/>
+    <hyperlink ref="B39" r:id="rId17" display="https://www.worldometers.info/coronavirus/usa/nebraska/" xr:uid="{F9C670EF-E60C-448D-A254-662A39524A93}"/>
+    <hyperlink ref="B38" r:id="rId18" display="https://www.worldometers.info/coronavirus/usa/kansas/" xr:uid="{6BD46740-DCBD-4E83-A064-36FEC564DE71}"/>
+    <hyperlink ref="B37" r:id="rId19" display="https://www.worldometers.info/coronavirus/usa/kentucky/" xr:uid="{374BDD5D-2616-4475-8328-C0847DDB0FA0}"/>
+    <hyperlink ref="B36" r:id="rId20" display="https://www.worldometers.info/coronavirus/usa/utah/" xr:uid="{62517B13-4F65-41B7-A236-81FEC54B66CD}"/>
+    <hyperlink ref="B35" r:id="rId21" display="https://www.worldometers.info/coronavirus/usa/connecticut/" xr:uid="{C5FABB1D-275D-482C-8278-3A4F26D87543}"/>
+    <hyperlink ref="B34" r:id="rId22" display="https://www.worldometers.info/coronavirus/usa/oklahoma/" xr:uid="{77ED426C-7C56-4A2B-A321-D97FF33178E9}"/>
+    <hyperlink ref="B33" r:id="rId23" display="https://www.worldometers.info/coronavirus/usa/colorado/" xr:uid="{A36BCE3A-D7B5-4FD6-9EF6-834F8F2C7F01}"/>
+    <hyperlink ref="B32" r:id="rId24" display="https://www.worldometers.info/coronavirus/usa/arkansas/" xr:uid="{35C04343-47F1-4FE8-AA9E-F2A4024A198A}"/>
+    <hyperlink ref="B31" r:id="rId25" display="https://www.worldometers.info/coronavirus/usa/iowa/" xr:uid="{1BCB9A44-5BC9-4C9E-B4A7-22AE1A864C81}"/>
     <hyperlink ref="B30" r:id="rId26" display="https://www.worldometers.info/coronavirus/usa/nevada/" xr:uid="{87307B61-FFF5-4347-8322-81661B436796}"/>
-    <hyperlink ref="B31" r:id="rId27" display="https://www.worldometers.info/coronavirus/usa/iowa/" xr:uid="{1BCB9A44-5BC9-4C9E-B4A7-22AE1A864C81}"/>
-    <hyperlink ref="B32" r:id="rId28" display="https://www.worldometers.info/coronavirus/usa/arkansas/" xr:uid="{35C04343-47F1-4FE8-AA9E-F2A4024A198A}"/>
-    <hyperlink ref="B33" r:id="rId29" display="https://www.worldometers.info/coronavirus/usa/colorado/" xr:uid="{A36BCE3A-D7B5-4FD6-9EF6-834F8F2C7F01}"/>
-    <hyperlink ref="B34" r:id="rId30" display="https://www.worldometers.info/coronavirus/usa/oklahoma/" xr:uid="{77ED426C-7C56-4A2B-A321-D97FF33178E9}"/>
-    <hyperlink ref="B35" r:id="rId31" display="https://www.worldometers.info/coronavirus/usa/connecticut/" xr:uid="{C5FABB1D-275D-482C-8278-3A4F26D87543}"/>
-    <hyperlink ref="B36" r:id="rId32" display="https://www.worldometers.info/coronavirus/usa/utah/" xr:uid="{62517B13-4F65-41B7-A236-81FEC54B66CD}"/>
-    <hyperlink ref="B37" r:id="rId33" display="https://www.worldometers.info/coronavirus/usa/kentucky/" xr:uid="{374BDD5D-2616-4475-8328-C0847DDB0FA0}"/>
-    <hyperlink ref="B38" r:id="rId34" display="https://www.worldometers.info/coronavirus/usa/kansas/" xr:uid="{6BD46740-DCBD-4E83-A064-36FEC564DE71}"/>
-    <hyperlink ref="B39" r:id="rId35" display="https://www.worldometers.info/coronavirus/usa/nebraska/" xr:uid="{F9C670EF-E60C-448D-A254-662A39524A93}"/>
-    <hyperlink ref="B40" r:id="rId36" display="https://www.worldometers.info/coronavirus/usa/idaho/" xr:uid="{98D55811-E92D-4072-AC33-B3C16ECF0D97}"/>
-    <hyperlink ref="B41" r:id="rId37" display="https://www.worldometers.info/coronavirus/usa/oregon/" xr:uid="{9E329FED-8B70-4313-BE3C-9040DDDA20D1}"/>
-    <hyperlink ref="B42" r:id="rId38" display="https://www.worldometers.info/coronavirus/usa/new-mexico/" xr:uid="{7861103B-84DB-4DA1-A4D6-A18B918D85C9}"/>
-    <hyperlink ref="B43" r:id="rId39" display="https://www.worldometers.info/coronavirus/usa/rhode-island/" xr:uid="{B3B41EE3-F6EE-4495-AB7D-E96D80B9A19A}"/>
-    <hyperlink ref="B44" r:id="rId40" display="https://www.worldometers.info/coronavirus/usa/delaware/" xr:uid="{21BB7D30-0554-4FF8-8CAB-04DF2AFDDB11}"/>
-    <hyperlink ref="B45" r:id="rId41" display="https://www.worldometers.info/coronavirus/usa/district-of-columbia/" xr:uid="{080FA22C-0DFA-459C-B359-31E889B154F3}"/>
-    <hyperlink ref="B46" r:id="rId42" display="https://www.worldometers.info/coronavirus/usa/south-dakota/" xr:uid="{CAE002EE-935C-427E-AF78-9A979EFF7AFC}"/>
-    <hyperlink ref="B47" r:id="rId43" display="https://www.worldometers.info/coronavirus/usa/north-dakota/" xr:uid="{1648C4FB-00D4-4742-9CE1-85DFEB87FB30}"/>
-    <hyperlink ref="B48" r:id="rId44" display="https://www.worldometers.info/coronavirus/usa/west-virginia/" xr:uid="{BE4C3033-0850-4E31-973B-F37F955AEACD}"/>
-    <hyperlink ref="B49" r:id="rId45" display="https://www.worldometers.info/coronavirus/usa/hawaii/" xr:uid="{3D5409D0-65A3-4514-BD83-691333198323}"/>
-    <hyperlink ref="B50" r:id="rId46" display="https://www.worldometers.info/coronavirus/usa/new-hampshire/" xr:uid="{2660BA48-56B1-4035-84FF-24A2D28DAB28}"/>
-    <hyperlink ref="B51" r:id="rId47" display="https://www.worldometers.info/coronavirus/usa/montana/" xr:uid="{20955AFA-6C77-4C17-9F51-155335BE7A71}"/>
-    <hyperlink ref="B52" r:id="rId48" display="https://www.worldometers.info/coronavirus/usa/alaska/" xr:uid="{5174D8B5-6315-4631-B169-02530ADA63CF}"/>
-    <hyperlink ref="B53" r:id="rId49" display="https://www.worldometers.info/coronavirus/usa/maine/" xr:uid="{FAE76A6D-37FB-4FD7-BCA6-4036329B8B53}"/>
-    <hyperlink ref="B54" r:id="rId50" display="https://www.worldometers.info/coronavirus/usa/wyoming/" xr:uid="{FBBB00F5-D408-4BF9-B99C-85FD7905D25F}"/>
-    <hyperlink ref="B55" r:id="rId51" display="https://www.worldometers.info/coronavirus/usa/vermont/" xr:uid="{62E5C439-BDE5-4F6A-A345-74DAFBB63EB7}"/>
+    <hyperlink ref="B29" r:id="rId27" display="https://www.worldometers.info/coronavirus/usa/minnesota/" xr:uid="{2CE4F559-AE76-43EE-85A3-2557B068A745}"/>
+    <hyperlink ref="B28" r:id="rId28" display="https://www.worldometers.info/coronavirus/usa/wisconsin/" xr:uid="{DE0281AF-BF03-448D-8D70-6EC819B01F26}"/>
+    <hyperlink ref="B27" r:id="rId29" display="https://www.worldometers.info/coronavirus/usa/washington/" xr:uid="{4E64B217-698D-49A1-A2F2-1A84EA952E26}"/>
+    <hyperlink ref="B26" r:id="rId30" display="https://www.worldometers.info/coronavirus/usa/mississippi/" xr:uid="{4BF8AE46-9478-4D28-82E0-0A9D621A9164}"/>
+    <hyperlink ref="B25" r:id="rId31" display="https://www.worldometers.info/coronavirus/usa/missouri/" xr:uid="{5D4467B5-D06B-4240-87C4-60214FBAE554}"/>
+    <hyperlink ref="B24" r:id="rId32" display="https://www.worldometers.info/coronavirus/usa/indiana/" xr:uid="{948F6206-6D5C-4658-A9F3-0AC0B489E52E}"/>
+    <hyperlink ref="B23" r:id="rId33" display="https://www.worldometers.info/coronavirus/usa/maryland/" xr:uid="{EF9EDFF2-D8C4-46DB-BC3F-3B0BF6E24278}"/>
+    <hyperlink ref="B22" r:id="rId34" display="https://www.worldometers.info/coronavirus/usa/michigan/" xr:uid="{BB920D38-13E3-4AEF-9D86-779F4F06784A}"/>
+    <hyperlink ref="B21" r:id="rId35" display="https://www.worldometers.info/coronavirus/usa/south-carolina/" xr:uid="{A94714EE-4C77-4991-9832-5F066733F8CA}"/>
+    <hyperlink ref="B20" r:id="rId36" display="https://www.worldometers.info/coronavirus/usa/virginia/" xr:uid="{F52D1D82-EAED-4FA3-9821-0F818073C33B}"/>
+    <hyperlink ref="B19" r:id="rId37" display="https://www.worldometers.info/coronavirus/usa/ohio/" xr:uid="{E8C0199B-6F6B-4778-87FF-F61CA9BCFD09}"/>
+    <hyperlink ref="B18" r:id="rId38" display="https://www.worldometers.info/coronavirus/usa/alabama/" xr:uid="{8901CBD4-4DD1-4EEF-AE98-F6D3C9EFF275}"/>
+    <hyperlink ref="B17" r:id="rId39" display="https://www.worldometers.info/coronavirus/usa/massachusetts/" xr:uid="{723DB7BE-9A2A-4135-8E8E-88FC7BCDBC89}"/>
+    <hyperlink ref="B16" r:id="rId40" display="https://www.worldometers.info/coronavirus/usa/pennsylvania/" xr:uid="{B88DAB58-1B2F-4041-AE3E-5380A8AE8B57}"/>
+    <hyperlink ref="B15" r:id="rId41" display="https://www.worldometers.info/coronavirus/usa/louisiana/" xr:uid="{A3C4EFAA-29B1-4FE2-8536-112D0AEE6E0A}"/>
+    <hyperlink ref="B14" r:id="rId42" display="https://www.worldometers.info/coronavirus/usa/tennessee/" xr:uid="{52694194-B4EF-430E-95E0-B5FC96DD3B36}"/>
+    <hyperlink ref="B13" r:id="rId43" display="https://www.worldometers.info/coronavirus/usa/north-carolina/" xr:uid="{06245944-9A24-4675-8A61-6E63E653C2D6}"/>
+    <hyperlink ref="B12" r:id="rId44" display="https://www.worldometers.info/coronavirus/usa/new-jersey/" xr:uid="{059EA654-4F3D-43A9-B5A3-EC5FBD2C2821}"/>
+    <hyperlink ref="B11" r:id="rId45" display="https://www.worldometers.info/coronavirus/usa/arizona/" xr:uid="{AB5BA313-ED9A-4580-8E15-982F4AE752EE}"/>
+    <hyperlink ref="B10" r:id="rId46" display="https://www.worldometers.info/coronavirus/usa/illinois/" xr:uid="{98EE339D-978B-47C9-8DB5-61B910391341}"/>
+    <hyperlink ref="B9" r:id="rId47" display="https://www.worldometers.info/coronavirus/usa/georgia/" xr:uid="{8ECB82D0-0C41-41E7-B0F5-E4F84199EDD0}"/>
+    <hyperlink ref="B8" r:id="rId48" display="https://www.worldometers.info/coronavirus/usa/new-york/" xr:uid="{216F7439-0896-43B2-86CA-EA56FFE1FDDB}"/>
+    <hyperlink ref="B7" r:id="rId49" display="https://www.worldometers.info/coronavirus/usa/florida/" xr:uid="{14585016-1A6C-453C-954D-A3E6DB0EDD59}"/>
+    <hyperlink ref="B6" r:id="rId50" display="https://www.worldometers.info/coronavirus/usa/texas/" xr:uid="{9EA48B68-588E-4B56-B566-CE6A02E7780C}"/>
+    <hyperlink ref="B5" r:id="rId51" display="https://www.worldometers.info/coronavirus/usa/california/" xr:uid="{2E8D0EDA-0CE7-4898-AB4D-8D26A274C7ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId52"/>
@@ -3719,19 +3719,19 @@
       </c>
       <c r="M2" s="46"/>
       <c r="N2" s="37">
-        <f>IFERROR(B2/J2,0)</f>
+        <f t="shared" ref="N2:N33" si="0">IFERROR(B2/J2,0)</f>
         <v>0.12775498980030342</v>
       </c>
       <c r="O2" s="38">
-        <f>IFERROR(I2/H2,0)</f>
+        <f t="shared" ref="O2:O33" si="1">IFERROR(I2/H2,0)</f>
         <v>1.7255216693418941E-2</v>
       </c>
       <c r="P2" s="36">
-        <f>D2*250</f>
+        <f t="shared" ref="P2:P33" si="2">D2*250</f>
         <v>526750</v>
       </c>
       <c r="Q2" s="39">
-        <f>ABS(P2-B2)/B2</f>
+        <f t="shared" ref="Q2:Q33" si="3">ABS(P2-B2)/B2</f>
         <v>3.311085648811229</v>
       </c>
     </row>
@@ -3770,19 +3770,19 @@
       </c>
       <c r="M3" s="46"/>
       <c r="N3" s="37">
-        <f>IFERROR(B3/J3,0)</f>
+        <f t="shared" si="0"/>
         <v>1.4996848659060253E-2</v>
       </c>
       <c r="O3" s="38">
-        <f>IFERROR(I3/H3,0)</f>
+        <f t="shared" si="1"/>
         <v>7.32653354403103E-3</v>
       </c>
       <c r="P3" s="36">
-        <f>D3*250</f>
+        <f t="shared" si="2"/>
         <v>9250</v>
       </c>
       <c r="Q3" s="39">
-        <f>ABS(P3-B3)/B3</f>
+        <f t="shared" si="3"/>
         <v>0.81657501963864887</v>
       </c>
     </row>
@@ -3821,19 +3821,19 @@
       </c>
       <c r="M4" s="46"/>
       <c r="N4" s="37">
-        <f>IFERROR(B4/J4,0)</f>
+        <f t="shared" si="0"/>
         <v>0.13867221379479541</v>
       </c>
       <c r="O4" s="38">
-        <f>IFERROR(I4/H4,0)</f>
+        <f t="shared" si="1"/>
         <v>2.481137550783517E-2</v>
       </c>
       <c r="P4" s="36">
-        <f>D4*250</f>
+        <f t="shared" si="2"/>
         <v>1244500</v>
       </c>
       <c r="Q4" s="39">
-        <f>ABS(P4-B4)/B4</f>
+        <f t="shared" si="3"/>
         <v>5.2020951070976489</v>
       </c>
     </row>
@@ -3872,19 +3872,19 @@
       </c>
       <c r="M5" s="46"/>
       <c r="N5" s="37">
-        <f>IFERROR(B5/J5,0)</f>
+        <f t="shared" si="0"/>
         <v>8.5355738444678433E-2</v>
       </c>
       <c r="O5" s="38">
-        <f>IFERROR(I5/H5,0)</f>
+        <f t="shared" si="1"/>
         <v>1.2712722852512156E-2</v>
       </c>
       <c r="P5" s="36">
-        <f>D5*250</f>
+        <f t="shared" si="2"/>
         <v>189000</v>
       </c>
       <c r="Q5" s="39">
-        <f>ABS(P5-B5)/B5</f>
+        <f t="shared" si="3"/>
         <v>2.172045717738281</v>
       </c>
     </row>
@@ -3927,19 +3927,19 @@
       </c>
       <c r="M6" s="46"/>
       <c r="N6" s="37">
-        <f>IFERROR(B6/J6,0)</f>
+        <f t="shared" si="0"/>
         <v>6.3413951436233892E-2</v>
       </c>
       <c r="O6" s="38">
-        <f>IFERROR(I6/H6,0)</f>
+        <f t="shared" si="1"/>
         <v>1.8391715239658196E-2</v>
       </c>
       <c r="P6" s="36">
-        <f>D6*250</f>
+        <f t="shared" si="2"/>
         <v>3209750</v>
       </c>
       <c r="Q6" s="39">
-        <f>ABS(P6-B6)/B6</f>
+        <f t="shared" si="3"/>
         <v>3.5969941050774246</v>
       </c>
     </row>
@@ -3978,19 +3978,19 @@
       </c>
       <c r="M7" s="46"/>
       <c r="N7" s="37">
-        <f>IFERROR(B7/J7,0)</f>
+        <f t="shared" si="0"/>
         <v>8.1620946304392525E-2</v>
       </c>
       <c r="O7" s="38">
-        <f>IFERROR(I7/H7,0)</f>
+        <f t="shared" si="1"/>
         <v>3.4080535551272946E-2</v>
       </c>
       <c r="P7" s="36">
-        <f>D7*250</f>
+        <f t="shared" si="2"/>
         <v>484250</v>
       </c>
       <c r="Q7" s="39">
-        <f>ABS(P7-B7)/B7</f>
+        <f t="shared" si="3"/>
         <v>7.5295827241822701</v>
       </c>
     </row>
@@ -4029,19 +4029,19 @@
       </c>
       <c r="M8" s="46"/>
       <c r="N8" s="37">
-        <f>IFERROR(B8/J8,0)</f>
+        <f t="shared" si="0"/>
         <v>4.6645720003056695E-2</v>
       </c>
       <c r="O8" s="38">
-        <f>IFERROR(I8/H8,0)</f>
+        <f t="shared" si="1"/>
         <v>8.5031241510459113E-2</v>
       </c>
       <c r="P8" s="36">
-        <f>D8*250</f>
+        <f t="shared" si="2"/>
         <v>1116250</v>
       </c>
       <c r="Q8" s="39">
-        <f>ABS(P8-B8)/B8</f>
+        <f t="shared" si="3"/>
         <v>20.263929898085532</v>
       </c>
     </row>
@@ -4080,19 +4080,19 @@
       </c>
       <c r="M9" s="46"/>
       <c r="N9" s="37">
-        <f>IFERROR(B9/J9,0)</f>
+        <f t="shared" si="0"/>
         <v>7.4257770049989139E-2</v>
       </c>
       <c r="O9" s="38">
-        <f>IFERROR(I9/H9,0)</f>
+        <f t="shared" si="1"/>
         <v>3.5341731744855498E-2</v>
       </c>
       <c r="P9" s="36">
-        <f>D9*250</f>
+        <f t="shared" si="2"/>
         <v>151000</v>
       </c>
       <c r="Q9" s="39">
-        <f>ABS(P9-B9)/B9</f>
+        <f t="shared" si="3"/>
         <v>7.8391968623778023</v>
       </c>
     </row>
@@ -4131,19 +4131,19 @@
       </c>
       <c r="M10" s="46"/>
       <c r="N10" s="37">
-        <f>IFERROR(B10/J10,0)</f>
+        <f t="shared" si="0"/>
         <v>4.9195699505237098E-2</v>
       </c>
       <c r="O10" s="38">
-        <f>IFERROR(I10/H10,0)</f>
+        <f t="shared" si="1"/>
         <v>4.3666564761031285E-2</v>
       </c>
       <c r="P10" s="36">
-        <f>D10*250</f>
+        <f t="shared" si="2"/>
         <v>151250</v>
       </c>
       <c r="Q10" s="39">
-        <f>ABS(P10-B10)/B10</f>
+        <f t="shared" si="3"/>
         <v>9.9197891848963966</v>
       </c>
     </row>
@@ -4182,19 +4182,19 @@
       </c>
       <c r="M11" s="46"/>
       <c r="N11" s="37">
-        <f>IFERROR(B11/J11,0)</f>
+        <f t="shared" si="0"/>
         <v>0.13520638533268725</v>
       </c>
       <c r="O11" s="38">
-        <f>IFERROR(I11/H11,0)</f>
+        <f t="shared" si="1"/>
         <v>1.7787388392857144E-2</v>
       </c>
       <c r="P11" s="36">
-        <f>D11*250</f>
+        <f t="shared" si="2"/>
         <v>2740500</v>
       </c>
       <c r="Q11" s="39">
-        <f>ABS(P11-B11)/B11</f>
+        <f t="shared" si="3"/>
         <v>3.4502651809173668</v>
       </c>
     </row>
@@ -4233,19 +4233,19 @@
       </c>
       <c r="M12" s="46"/>
       <c r="N12" s="37">
-        <f>IFERROR(B12/J12,0)</f>
+        <f t="shared" si="0"/>
         <v>0.10362470933013654</v>
       </c>
       <c r="O12" s="38">
-        <f>IFERROR(I12/H12,0)</f>
+        <f t="shared" si="1"/>
         <v>2.0604945186844841E-2</v>
       </c>
       <c r="P12" s="36">
-        <f>D12*250</f>
+        <f t="shared" si="2"/>
         <v>1367750</v>
       </c>
       <c r="Q12" s="39">
-        <f>ABS(P12-B12)/B12</f>
+        <f t="shared" si="3"/>
         <v>4.1540855855176888</v>
       </c>
     </row>
@@ -4276,19 +4276,19 @@
       <c r="L13" s="2"/>
       <c r="M13" s="46"/>
       <c r="N13" s="37">
-        <f>IFERROR(B13/J13,0)</f>
+        <f t="shared" si="0"/>
         <v>3.4714355073636509E-2</v>
       </c>
       <c r="O13" s="38">
-        <f>IFERROR(I13/H13,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P13" s="36">
-        <f>D13*250</f>
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="Q13" s="39">
-        <f>ABS(P13-B13)/B13</f>
+        <f t="shared" si="3"/>
         <v>0.94250194250194252</v>
       </c>
     </row>
@@ -4327,19 +4327,19 @@
       </c>
       <c r="M14" s="46"/>
       <c r="N14" s="37">
-        <f>IFERROR(B14/J14,0)</f>
+        <f t="shared" si="0"/>
         <v>3.1107226570259425E-2</v>
       </c>
       <c r="O14" s="38">
-        <f>IFERROR(I14/H14,0)</f>
+        <f t="shared" si="1"/>
         <v>7.5949367088607592E-3</v>
       </c>
       <c r="P14" s="36">
-        <f>D14*250</f>
+        <f t="shared" si="2"/>
         <v>14750</v>
       </c>
       <c r="Q14" s="39">
-        <f>ABS(P14-B14)/B14</f>
+        <f t="shared" si="3"/>
         <v>0.88378033205619411</v>
       </c>
     </row>
@@ -4378,19 +4378,19 @@
       </c>
       <c r="M15" s="46"/>
       <c r="N15" s="37">
-        <f>IFERROR(B15/J15,0)</f>
+        <f t="shared" si="0"/>
         <v>0.12616480539006408</v>
       </c>
       <c r="O15" s="38">
-        <f>IFERROR(I15/H15,0)</f>
+        <f t="shared" si="1"/>
         <v>1.1274342330030749E-2</v>
       </c>
       <c r="P15" s="36">
-        <f>D15*250</f>
+        <f t="shared" si="2"/>
         <v>88250</v>
       </c>
       <c r="Q15" s="39">
-        <f>ABS(P15-B15)/B15</f>
+        <f t="shared" si="3"/>
         <v>1.8119423910272749</v>
       </c>
     </row>
@@ -4429,19 +4429,19 @@
       </c>
       <c r="M16" s="46"/>
       <c r="N16" s="37">
-        <f>IFERROR(B16/J16,0)</f>
+        <f t="shared" si="0"/>
         <v>5.8911068329296525E-2</v>
       </c>
       <c r="O16" s="38">
-        <f>IFERROR(I16/H16,0)</f>
+        <f t="shared" si="1"/>
         <v>3.551852663889498E-2</v>
       </c>
       <c r="P16" s="36">
-        <f>D16*250</f>
+        <f t="shared" si="2"/>
         <v>2051500</v>
       </c>
       <c r="Q16" s="39">
-        <f>ABS(P16-B16)/B16</f>
+        <f t="shared" si="3"/>
         <v>7.8738456214719816</v>
       </c>
     </row>
@@ -4480,19 +4480,19 @@
       </c>
       <c r="M17" s="46"/>
       <c r="N17" s="37">
-        <f>IFERROR(B17/J17,0)</f>
+        <f t="shared" si="0"/>
         <v>6.6304332040837077E-2</v>
       </c>
       <c r="O17" s="38">
-        <f>IFERROR(I17/H17,0)</f>
+        <f t="shared" si="1"/>
         <v>3.5903863167207312E-2</v>
       </c>
       <c r="P17" s="36">
-        <f>D17*250</f>
+        <f t="shared" si="2"/>
         <v>819250</v>
       </c>
       <c r="Q17" s="39">
-        <f>ABS(P17-B17)/B17</f>
+        <f t="shared" si="3"/>
         <v>7.9718879020511864</v>
       </c>
     </row>
@@ -4535,19 +4535,19 @@
       </c>
       <c r="M18" s="46"/>
       <c r="N18" s="37">
-        <f>IFERROR(B18/J18,0)</f>
+        <f t="shared" si="0"/>
         <v>0.10100602720082454</v>
       </c>
       <c r="O18" s="38">
-        <f>IFERROR(I18/H18,0)</f>
+        <f t="shared" si="1"/>
         <v>1.7547367894815778E-2</v>
       </c>
       <c r="P18" s="36">
-        <f>D18*250</f>
+        <f t="shared" si="2"/>
         <v>277000</v>
       </c>
       <c r="Q18" s="39">
-        <f>ABS(P18-B18)/B18</f>
+        <f t="shared" si="3"/>
         <v>3.3890226898212701</v>
       </c>
     </row>
@@ -4588,19 +4588,19 @@
       </c>
       <c r="M19" s="46"/>
       <c r="N19" s="37">
-        <f>IFERROR(B19/J19,0)</f>
+        <f t="shared" si="0"/>
         <v>0.10310135012786899</v>
       </c>
       <c r="O19" s="38">
-        <f>IFERROR(I19/H19,0)</f>
+        <f t="shared" si="1"/>
         <v>1.0724048503539637E-2</v>
       </c>
       <c r="P19" s="36">
-        <f>D19*250</f>
+        <f t="shared" si="2"/>
         <v>111250</v>
       </c>
       <c r="Q19" s="39">
-        <f>ABS(P19-B19)/B19</f>
+        <f t="shared" si="3"/>
         <v>1.6765307349933838</v>
       </c>
     </row>
@@ -4639,19 +4639,19 @@
       </c>
       <c r="M20" s="46"/>
       <c r="N20" s="37">
-        <f>IFERROR(B20/J20,0)</f>
+        <f t="shared" si="0"/>
         <v>5.4321988804955749E-2</v>
       </c>
       <c r="O20" s="38">
-        <f>IFERROR(I20/H20,0)</f>
+        <f t="shared" si="1"/>
         <v>1.9587234855723293E-2</v>
       </c>
       <c r="P20" s="36">
-        <f>D20*250</f>
+        <f t="shared" si="2"/>
         <v>229500</v>
       </c>
       <c r="Q20" s="39">
-        <f>ABS(P20-B20)/B20</f>
+        <f t="shared" si="3"/>
         <v>3.9083559680903392</v>
       </c>
     </row>
@@ -4690,19 +4690,19 @@
       </c>
       <c r="M21" s="46"/>
       <c r="N21" s="37">
-        <f>IFERROR(B21/J21,0)</f>
+        <f t="shared" si="0"/>
         <v>7.9980727140277319E-2</v>
       </c>
       <c r="O21" s="38">
-        <f>IFERROR(I21/H21,0)</f>
+        <f t="shared" si="1"/>
         <v>3.353677919766037E-2</v>
       </c>
       <c r="P21" s="36">
-        <f>D21*250</f>
+        <f t="shared" si="2"/>
         <v>1226000</v>
       </c>
       <c r="Q21" s="39">
-        <f>ABS(P21-B21)/B21</f>
+        <f t="shared" si="3"/>
         <v>7.383307235218096</v>
       </c>
     </row>
@@ -4741,19 +4741,19 @@
       </c>
       <c r="M22" s="46"/>
       <c r="N22" s="37">
-        <f>IFERROR(B22/J22,0)</f>
+        <f t="shared" si="0"/>
         <v>1.7047834625243553E-2</v>
       </c>
       <c r="O22" s="38">
-        <f>IFERROR(I22/H22,0)</f>
+        <f t="shared" si="1"/>
         <v>2.9696969696969697E-2</v>
       </c>
       <c r="P22" s="36">
-        <f>D22*250</f>
+        <f t="shared" si="2"/>
         <v>33000</v>
       </c>
       <c r="Q22" s="39">
-        <f>ABS(P22-B22)/B22</f>
+        <f t="shared" si="3"/>
         <v>6.4391343552750229</v>
       </c>
     </row>
@@ -4792,19 +4792,19 @@
       </c>
       <c r="M23" s="46"/>
       <c r="N23" s="37">
-        <f>IFERROR(B23/J23,0)</f>
+        <f t="shared" si="0"/>
         <v>5.7072320106670835E-2</v>
       </c>
       <c r="O23" s="38">
-        <f>IFERROR(I23/H23,0)</f>
+        <f t="shared" si="1"/>
         <v>3.5028056452984187E-2</v>
       </c>
       <c r="P23" s="36">
-        <f>D23*250</f>
+        <f t="shared" si="2"/>
         <v>934000</v>
       </c>
       <c r="Q23" s="39">
-        <f>ABS(P23-B23)/B23</f>
+        <f t="shared" si="3"/>
         <v>7.7564689117227932</v>
       </c>
     </row>
@@ -4843,19 +4843,19 @@
       </c>
       <c r="M24" s="47"/>
       <c r="N24" s="37">
-        <f>IFERROR(B24/J24,0)</f>
+        <f t="shared" si="0"/>
         <v>6.8259517137106485E-2</v>
       </c>
       <c r="O24" s="38">
-        <f>IFERROR(I24/H24,0)</f>
+        <f t="shared" si="1"/>
         <v>7.071471017232997E-2</v>
       </c>
       <c r="P24" s="36">
-        <f>D24*250</f>
+        <f t="shared" si="2"/>
         <v>2256000</v>
       </c>
       <c r="Q24" s="39">
-        <f>ABS(P24-B24)/B24</f>
+        <f t="shared" si="3"/>
         <v>16.682468021068473</v>
       </c>
     </row>
@@ -4894,19 +4894,19 @@
       </c>
       <c r="M25" s="46"/>
       <c r="N25" s="37">
-        <f>IFERROR(B25/J25,0)</f>
+        <f t="shared" si="0"/>
         <v>3.7433468490286281E-2</v>
       </c>
       <c r="O25" s="38">
-        <f>IFERROR(I25/H25,0)</f>
+        <f t="shared" si="1"/>
         <v>6.0388209920920199E-2</v>
       </c>
       <c r="P25" s="36">
-        <f>D25*250</f>
+        <f t="shared" si="2"/>
         <v>1678000</v>
       </c>
       <c r="Q25" s="39">
-        <f>ABS(P25-B25)/B25</f>
+        <f t="shared" si="3"/>
         <v>14.098617909588253</v>
       </c>
     </row>
@@ -4945,19 +4945,19 @@
       </c>
       <c r="M26" s="46"/>
       <c r="N26" s="37">
-        <f>IFERROR(B26/J26,0)</f>
+        <f t="shared" si="0"/>
         <v>5.0743273952709819E-2</v>
       </c>
       <c r="O26" s="38">
-        <f>IFERROR(I26/H26,0)</f>
+        <f t="shared" si="1"/>
         <v>2.5410025410025409E-2</v>
       </c>
       <c r="P26" s="36">
-        <f>D26*250</f>
+        <f t="shared" si="2"/>
         <v>464750</v>
       </c>
       <c r="Q26" s="39">
-        <f>ABS(P26-B26)/B26</f>
+        <f t="shared" si="3"/>
         <v>5.3455761878754782</v>
       </c>
     </row>
@@ -4996,19 +4996,19 @@
       </c>
       <c r="M27" s="46"/>
       <c r="N27" s="37">
-        <f>IFERROR(B27/J27,0)</f>
+        <f t="shared" si="0"/>
         <v>0.13258571002196878</v>
       </c>
       <c r="O27" s="38">
-        <f>IFERROR(I27/H27,0)</f>
+        <f t="shared" si="1"/>
         <v>2.9690646165110746E-2</v>
       </c>
       <c r="P27" s="36">
-        <f>D27*250</f>
+        <f t="shared" si="2"/>
         <v>603250</v>
       </c>
       <c r="Q27" s="39">
-        <f>ABS(P27-B27)/B27</f>
+        <f t="shared" si="3"/>
         <v>6.4205968460156964</v>
       </c>
     </row>
@@ -5047,19 +5047,19 @@
       </c>
       <c r="M28" s="46"/>
       <c r="N28" s="37">
-        <f>IFERROR(B28/J28,0)</f>
+        <f t="shared" si="0"/>
         <v>8.0433460507300936E-2</v>
       </c>
       <c r="O28" s="38">
-        <f>IFERROR(I28/H28,0)</f>
+        <f t="shared" si="1"/>
         <v>1.9697082742669552E-2</v>
       </c>
       <c r="P28" s="36">
-        <f>D28*250</f>
+        <f t="shared" si="2"/>
         <v>405000</v>
       </c>
       <c r="Q28" s="39">
-        <f>ABS(P28-B28)/B28</f>
+        <f t="shared" si="3"/>
         <v>3.9232340177236424</v>
       </c>
     </row>
@@ -5098,19 +5098,19 @@
       </c>
       <c r="M29" s="46"/>
       <c r="N29" s="37">
-        <f>IFERROR(B29/J29,0)</f>
+        <f t="shared" si="0"/>
         <v>2.9080802882141019E-2</v>
       </c>
       <c r="O29" s="38">
-        <f>IFERROR(I29/H29,0)</f>
+        <f t="shared" si="1"/>
         <v>1.4225181598062953E-2</v>
       </c>
       <c r="P29" s="36">
-        <f>D29*250</f>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="Q29" s="39">
-        <f>ABS(P29-B29)/B29</f>
+        <f t="shared" si="3"/>
         <v>2.539572419651706</v>
       </c>
     </row>
@@ -5149,19 +5149,19 @@
       </c>
       <c r="M30" s="46"/>
       <c r="N30" s="37">
-        <f>IFERROR(B30/J30,0)</f>
+        <f t="shared" si="0"/>
         <v>9.3992370639612521E-2</v>
       </c>
       <c r="O30" s="38">
-        <f>IFERROR(I30/H30,0)</f>
+        <f t="shared" si="1"/>
         <v>1.1744286954006363E-2</v>
       </c>
       <c r="P30" s="36">
-        <f>D30*250</f>
+        <f t="shared" si="2"/>
         <v>98000</v>
       </c>
       <c r="Q30" s="39">
-        <f>ABS(P30-B30)/B30</f>
+        <f t="shared" si="3"/>
         <v>1.9309726043785143</v>
       </c>
     </row>
@@ -5200,19 +5200,19 @@
       </c>
       <c r="M31" s="46"/>
       <c r="N31" s="37">
-        <f>IFERROR(B31/J31,0)</f>
+        <f t="shared" si="0"/>
         <v>8.1060190644125785E-2</v>
       </c>
       <c r="O31" s="38">
-        <f>IFERROR(I31/H31,0)</f>
+        <f t="shared" si="1"/>
         <v>1.8974987516455582E-2</v>
       </c>
       <c r="P31" s="36">
-        <f>D31*250</f>
+        <f t="shared" si="2"/>
         <v>321750</v>
       </c>
       <c r="Q31" s="39">
-        <f>ABS(P31-B31)/B31</f>
+        <f t="shared" si="3"/>
         <v>3.7419383363791781</v>
       </c>
     </row>
@@ -5251,19 +5251,19 @@
       </c>
       <c r="M32" s="46"/>
       <c r="N32" s="37">
-        <f>IFERROR(B32/J32,0)</f>
+        <f t="shared" si="0"/>
         <v>3.0610643307103315E-2</v>
       </c>
       <c r="O32" s="38">
-        <f>IFERROR(I32/H32,0)</f>
+        <f t="shared" si="1"/>
         <v>5.9920859242509894E-2</v>
       </c>
       <c r="P32" s="36">
-        <f>D32*250</f>
+        <f t="shared" si="2"/>
         <v>108000</v>
       </c>
       <c r="Q32" s="39">
-        <f>ABS(P32-B32)/B32</f>
+        <f t="shared" si="3"/>
         <v>13.966740576496674</v>
       </c>
     </row>
@@ -5302,19 +5302,19 @@
       </c>
       <c r="M33" s="46"/>
       <c r="N33" s="37">
-        <f>IFERROR(B33/J33,0)</f>
+        <f t="shared" si="0"/>
         <v>7.1559380043043672E-2</v>
       </c>
       <c r="O33" s="38">
-        <f>IFERROR(I33/H33,0)</f>
+        <f t="shared" si="1"/>
         <v>8.1504560643005514E-2</v>
       </c>
       <c r="P33" s="36">
-        <f>D33*250</f>
+        <f t="shared" si="2"/>
         <v>4008500</v>
       </c>
       <c r="Q33" s="39">
-        <f>ABS(P33-B33)/B33</f>
+        <f t="shared" si="3"/>
         <v>19.378231361683738</v>
       </c>
     </row>
@@ -5353,19 +5353,19 @@
       </c>
       <c r="M34" s="46"/>
       <c r="N34" s="37">
-        <f>IFERROR(B34/J34,0)</f>
+        <f t="shared" ref="N34:N56" si="4">IFERROR(B34/J34,0)</f>
         <v>3.3511000606200915E-2</v>
       </c>
       <c r="O34" s="38">
-        <f>IFERROR(I34/H34,0)</f>
+        <f t="shared" ref="O34:O56" si="5">IFERROR(I34/H34,0)</f>
         <v>3.0645566440592815E-2</v>
       </c>
       <c r="P34" s="36">
-        <f>D34*250</f>
+        <f t="shared" ref="P34:P56" si="6">D34*250</f>
         <v>191750</v>
       </c>
       <c r="Q34" s="39">
-        <f>ABS(P34-B34)/B34</f>
+        <f t="shared" ref="Q34:Q65" si="7">ABS(P34-B34)/B34</f>
         <v>6.657136011500679</v>
       </c>
     </row>
@@ -5404,19 +5404,19 @@
       </c>
       <c r="M35" s="48"/>
       <c r="N35" s="37">
-        <f>IFERROR(B35/J35,0)</f>
+        <f t="shared" si="4"/>
         <v>5.7968383199233975E-2</v>
       </c>
       <c r="O35" s="38">
-        <f>IFERROR(I35/H35,0)</f>
+        <f t="shared" si="5"/>
         <v>7.1161991026124874E-2</v>
       </c>
       <c r="P35" s="36">
-        <f>D35*250</f>
+        <f t="shared" si="6"/>
         <v>8251250</v>
       </c>
       <c r="Q35" s="39">
-        <f>ABS(P35-B35)/B35</f>
+        <f t="shared" si="7"/>
         <v>16.786124613345116</v>
       </c>
     </row>
@@ -5455,19 +5455,19 @@
       </c>
       <c r="M36" s="46"/>
       <c r="N36" s="37">
-        <f>IFERROR(B36/J36,0)</f>
+        <f t="shared" si="4"/>
         <v>7.4855776124414825E-2</v>
       </c>
       <c r="O36" s="38">
-        <f>IFERROR(I36/H36,0)</f>
+        <f t="shared" si="5"/>
         <v>1.6431322207958923E-2</v>
       </c>
       <c r="P36" s="36">
-        <f>D36*250</f>
+        <f t="shared" si="6"/>
         <v>670750</v>
       </c>
       <c r="Q36" s="39">
-        <f>ABS(P36-B36)/B36</f>
+        <f t="shared" si="7"/>
         <v>3.1049069166840062</v>
       </c>
     </row>
@@ -5506,19 +5506,19 @@
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="37">
-        <f>IFERROR(B37/J37,0)</f>
+        <f t="shared" si="4"/>
         <v>5.6112244691811954E-2</v>
       </c>
       <c r="O37" s="38">
-        <f>IFERROR(I37/H37,0)</f>
+        <f t="shared" si="5"/>
         <v>1.2483709445092256E-2</v>
       </c>
       <c r="P37" s="36">
-        <f>D37*250</f>
+        <f t="shared" si="6"/>
         <v>34750</v>
       </c>
       <c r="Q37" s="39">
-        <f>ABS(P37-B37)/B37</f>
+        <f t="shared" si="7"/>
         <v>2.127812781278128</v>
       </c>
     </row>
@@ -5549,19 +5549,19 @@
       <c r="L38" s="2"/>
       <c r="M38" s="46"/>
       <c r="N38" s="37">
-        <f>IFERROR(B38/J38,0)</f>
+        <f t="shared" si="4"/>
         <v>3.0636559627822534E-3</v>
       </c>
       <c r="O38" s="38">
-        <f>IFERROR(I38/H38,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P38" s="36">
-        <f>D38*250</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="Q38" s="39">
-        <f>ABS(P38-B38)/B38</f>
+        <f t="shared" si="7"/>
         <v>8.2592592592592595</v>
       </c>
     </row>
@@ -5600,19 +5600,19 @@
       </c>
       <c r="M39" s="46"/>
       <c r="N39" s="37">
-        <f>IFERROR(B39/J39,0)</f>
+        <f t="shared" si="4"/>
         <v>5.6295253193020325E-2</v>
       </c>
       <c r="O39" s="38">
-        <f>IFERROR(I39/H39,0)</f>
+        <f t="shared" si="5"/>
         <v>3.4237914599747107E-2</v>
       </c>
       <c r="P39" s="36">
-        <f>D39*250</f>
+        <f t="shared" si="6"/>
         <v>1028000</v>
       </c>
       <c r="Q39" s="39">
-        <f>ABS(P39-B39)/B39</f>
+        <f t="shared" si="7"/>
         <v>7.5544765376005856</v>
       </c>
     </row>
@@ -5651,19 +5651,19 @@
       </c>
       <c r="M40" s="46"/>
       <c r="N40" s="37">
-        <f>IFERROR(B40/J40,0)</f>
+        <f t="shared" si="4"/>
         <v>6.4320959989756205E-2</v>
       </c>
       <c r="O40" s="38">
-        <f>IFERROR(I40/H40,0)</f>
+        <f t="shared" si="5"/>
         <v>1.3996342664228443E-2</v>
       </c>
       <c r="P40" s="36">
-        <f>D40*250</f>
+        <f t="shared" si="6"/>
         <v>196500</v>
       </c>
       <c r="Q40" s="39">
-        <f>ABS(P40-B40)/B40</f>
+        <f t="shared" si="7"/>
         <v>2.4927124066832564</v>
       </c>
     </row>
@@ -5702,19 +5702,19 @@
       </c>
       <c r="M41" s="46"/>
       <c r="N41" s="37">
-        <f>IFERROR(B41/J41,0)</f>
+        <f t="shared" si="4"/>
         <v>4.8017928855911197E-2</v>
       </c>
       <c r="O41" s="38">
-        <f>IFERROR(I41/H41,0)</f>
+        <f t="shared" si="5"/>
         <v>1.7160433867573256E-2</v>
       </c>
       <c r="P41" s="36">
-        <f>D41*250</f>
+        <f t="shared" si="6"/>
         <v>111750</v>
       </c>
       <c r="Q41" s="39">
-        <f>ABS(P41-B41)/B41</f>
+        <f t="shared" si="7"/>
         <v>3.2891686497274892</v>
       </c>
     </row>
@@ -5753,19 +5753,19 @@
       </c>
       <c r="M42" s="46"/>
       <c r="N42" s="37">
-        <f>IFERROR(B42/J42,0)</f>
+        <f t="shared" si="4"/>
         <v>8.4188194061589353E-2</v>
       </c>
       <c r="O42" s="38">
-        <f>IFERROR(I42/H42,0)</f>
+        <f t="shared" si="5"/>
         <v>5.6605538922155689E-2</v>
       </c>
       <c r="P42" s="36">
-        <f>D42*250</f>
+        <f t="shared" si="6"/>
         <v>1935250</v>
       </c>
       <c r="Q42" s="39">
-        <f>ABS(P42-B42)/B42</f>
+        <f t="shared" si="7"/>
         <v>13.144082909431093</v>
       </c>
     </row>
@@ -5808,19 +5808,19 @@
       </c>
       <c r="M43" s="46"/>
       <c r="N43" s="37">
-        <f>IFERROR(B43/J43,0)</f>
+        <f t="shared" si="4"/>
         <v>7.0139827139264727E-2</v>
       </c>
       <c r="O43" s="38">
-        <f>IFERROR(I43/H43,0)</f>
+        <f t="shared" si="5"/>
         <v>1.3111342351716961E-2</v>
       </c>
       <c r="P43" s="36">
-        <f>D43*250</f>
+        <f t="shared" si="6"/>
         <v>107000</v>
       </c>
       <c r="Q43" s="39">
-        <f>ABS(P43-B43)/B43</f>
+        <f t="shared" si="7"/>
         <v>2.2872503840245777</v>
       </c>
     </row>
@@ -5859,19 +5859,19 @@
       </c>
       <c r="M44" s="46"/>
       <c r="N44" s="37">
-        <f>IFERROR(B44/J44,0)</f>
+        <f t="shared" si="4"/>
         <v>4.2944797426837579E-2</v>
       </c>
       <c r="O44" s="38">
-        <f>IFERROR(I44/H44,0)</f>
+        <f t="shared" si="5"/>
         <v>4.8221614227086186E-2</v>
       </c>
       <c r="P44" s="36">
-        <f>D44*250</f>
+        <f t="shared" si="6"/>
         <v>261500</v>
       </c>
       <c r="Q44" s="39">
-        <f>ABS(P44-B44)/B44</f>
+        <f t="shared" si="7"/>
         <v>11.060139279619978</v>
       </c>
     </row>
@@ -5910,19 +5910,19 @@
       </c>
       <c r="M45" s="47"/>
       <c r="N45" s="37">
-        <f>IFERROR(B45/J45,0)</f>
+        <f t="shared" si="4"/>
         <v>0.11716092082940527</v>
       </c>
       <c r="O45" s="38">
-        <f>IFERROR(I45/H45,0)</f>
+        <f t="shared" si="5"/>
         <v>2.2912966252220248E-2</v>
       </c>
       <c r="P45" s="36">
-        <f>D45*250</f>
+        <f t="shared" si="6"/>
         <v>663750</v>
       </c>
       <c r="Q45" s="39">
-        <f>ABS(P45-B45)/B45</f>
+        <f t="shared" si="7"/>
         <v>4.7244008244862057</v>
       </c>
     </row>
@@ -5961,19 +5961,19 @@
       </c>
       <c r="M46" s="46"/>
       <c r="N46" s="37">
-        <f>IFERROR(B46/J46,0)</f>
+        <f t="shared" si="4"/>
         <v>8.7568210437945992E-2</v>
       </c>
       <c r="O46" s="38">
-        <f>IFERROR(I46/H46,0)</f>
+        <f t="shared" si="5"/>
         <v>1.3216481730157608E-2</v>
       </c>
       <c r="P46" s="36">
-        <f>D46*250</f>
+        <f t="shared" si="6"/>
         <v>41250</v>
       </c>
       <c r="Q46" s="39">
-        <f>ABS(P46-B46)/B46</f>
+        <f t="shared" si="7"/>
         <v>2.2955180953902694</v>
       </c>
     </row>
@@ -6012,19 +6012,19 @@
       </c>
       <c r="M47" s="46"/>
       <c r="N47" s="37">
-        <f>IFERROR(B47/J47,0)</f>
+        <f t="shared" si="4"/>
         <v>7.0080831220971973E-2</v>
       </c>
       <c r="O47" s="38">
-        <f>IFERROR(I47/H47,0)</f>
+        <f t="shared" si="5"/>
         <v>1.1275131316790437E-2</v>
       </c>
       <c r="P47" s="36">
-        <f>D47*250</f>
+        <f t="shared" si="6"/>
         <v>425250</v>
       </c>
       <c r="Q47" s="39">
-        <f>ABS(P47-B47)/B47</f>
+        <f t="shared" si="7"/>
         <v>1.8196797400789047</v>
       </c>
     </row>
@@ -6063,19 +6063,19 @@
       </c>
       <c r="M48" s="46"/>
       <c r="N48" s="37">
-        <f>IFERROR(B48/J48,0)</f>
+        <f t="shared" si="4"/>
         <v>0.11949875950912045</v>
       </c>
       <c r="O48" s="38">
-        <f>IFERROR(I48/H48,0)</f>
+        <f t="shared" si="5"/>
         <v>2.0077184599834604E-2</v>
       </c>
       <c r="P48" s="36">
-        <f>D48*250</f>
+        <f t="shared" si="6"/>
         <v>3166750</v>
       </c>
       <c r="Q48" s="39">
-        <f>ABS(P48-B48)/B48</f>
+        <f t="shared" si="7"/>
         <v>4.0176829055739178</v>
       </c>
     </row>
@@ -6108,19 +6108,19 @@
       <c r="L49" s="55"/>
       <c r="M49" s="46"/>
       <c r="N49" s="37">
-        <f>IFERROR(B49/J49,0)</f>
+        <f t="shared" si="4"/>
         <v>7.0234954139967332E-2</v>
       </c>
       <c r="O49" s="38">
-        <f>IFERROR(I49/H49,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P49" s="36">
-        <f>D49*250</f>
+        <f t="shared" si="6"/>
         <v>3500</v>
       </c>
       <c r="Q49" s="39">
-        <f>ABS(P49-B49)/B49</f>
+        <f t="shared" si="7"/>
         <v>2.1305903398926653</v>
       </c>
     </row>
@@ -6159,19 +6159,19 @@
       </c>
       <c r="M50" s="46"/>
       <c r="N50" s="37">
-        <f>IFERROR(B50/J50,0)</f>
+        <f t="shared" si="4"/>
         <v>6.372674101536506E-2</v>
       </c>
       <c r="O50" s="38">
-        <f>IFERROR(I50/H50,0)</f>
+        <f t="shared" si="5"/>
         <v>7.9914422350868368E-3</v>
       </c>
       <c r="P50" s="36">
-        <f>D50*250</f>
+        <f t="shared" si="6"/>
         <v>101750</v>
       </c>
       <c r="Q50" s="39">
-        <f>ABS(P50-B50)/B50</f>
+        <f t="shared" si="7"/>
         <v>0.99713433304545807</v>
       </c>
     </row>
@@ -6210,19 +6210,19 @@
       </c>
       <c r="M51" s="46"/>
       <c r="N51" s="37">
-        <f>IFERROR(B51/J51,0)</f>
+        <f t="shared" si="4"/>
         <v>1.2535994635320106E-2</v>
       </c>
       <c r="O51" s="38">
-        <f>IFERROR(I51/H51,0)</f>
+        <f t="shared" si="5"/>
         <v>3.6513545347467612E-2</v>
       </c>
       <c r="P51" s="36">
-        <f>D51*250</f>
+        <f t="shared" si="6"/>
         <v>14500</v>
       </c>
       <c r="Q51" s="39">
-        <f>ABS(P51-B51)/B51</f>
+        <f t="shared" si="7"/>
         <v>8.1252359974826938</v>
       </c>
     </row>
@@ -6261,19 +6261,19 @@
       </c>
       <c r="M52" s="46"/>
       <c r="N52" s="37">
-        <f>IFERROR(B52/J52,0)</f>
+        <f t="shared" si="4"/>
         <v>7.076557189212089E-2</v>
       </c>
       <c r="O52" s="38">
-        <f>IFERROR(I52/H52,0)</f>
+        <f t="shared" si="5"/>
         <v>2.1702838063439065E-2</v>
       </c>
       <c r="P52" s="36">
-        <f>D52*250</f>
+        <f t="shared" si="6"/>
         <v>637500</v>
       </c>
       <c r="Q52" s="39">
-        <f>ABS(P52-B52)/B52</f>
+        <f t="shared" si="7"/>
         <v>4.4212871623919998</v>
       </c>
     </row>
@@ -6312,19 +6312,19 @@
       </c>
       <c r="M53" s="46"/>
       <c r="N53" s="37">
-        <f>IFERROR(B53/J53,0)</f>
+        <f t="shared" si="4"/>
         <v>5.298815610094601E-2</v>
       </c>
       <c r="O53" s="38">
-        <f>IFERROR(I53/H53,0)</f>
+        <f t="shared" si="5"/>
         <v>2.5234682547693552E-2</v>
       </c>
       <c r="P53" s="36">
-        <f>D53*250</f>
+        <f t="shared" si="6"/>
         <v>476250</v>
       </c>
       <c r="Q53" s="39">
-        <f>ABS(P53-B53)/B53</f>
+        <f t="shared" si="7"/>
         <v>5.3127129090836789</v>
       </c>
     </row>
@@ -6363,19 +6363,19 @@
       </c>
       <c r="M54" s="46"/>
       <c r="N54" s="37">
-        <f>IFERROR(B54/J54,0)</f>
+        <f t="shared" si="4"/>
         <v>2.3423883109482332E-2</v>
       </c>
       <c r="O54" s="38">
-        <f>IFERROR(I54/H54,0)</f>
+        <f t="shared" si="5"/>
         <v>2.0612914994527543E-2</v>
       </c>
       <c r="P54" s="36">
-        <f>D54*250</f>
+        <f t="shared" si="6"/>
         <v>50500</v>
       </c>
       <c r="Q54" s="39">
-        <f>ABS(P54-B54)/B54</f>
+        <f t="shared" si="7"/>
         <v>4.140472312703583</v>
       </c>
     </row>
@@ -6414,19 +6414,19 @@
       </c>
       <c r="M55" s="46"/>
       <c r="N55" s="37">
-        <f>IFERROR(B55/J55,0)</f>
+        <f t="shared" si="4"/>
         <v>6.0108645843150892E-2</v>
       </c>
       <c r="O55" s="38">
-        <f>IFERROR(I55/H55,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5032268219738706E-2</v>
       </c>
       <c r="P55" s="36">
-        <f>D55*250</f>
+        <f t="shared" si="6"/>
         <v>278250</v>
       </c>
       <c r="Q55" s="39">
-        <f>ABS(P55-B55)/B55</f>
+        <f t="shared" si="7"/>
         <v>2.7611008231843313</v>
       </c>
     </row>
@@ -6465,19 +6465,19 @@
       </c>
       <c r="M56" s="46"/>
       <c r="N56" s="37">
-        <f>IFERROR(B56/J56,0)</f>
+        <f t="shared" si="4"/>
         <v>3.1743755430518883E-2</v>
       </c>
       <c r="O56" s="38">
-        <f>IFERROR(I56/H56,0)</f>
+        <f t="shared" si="5"/>
         <v>9.8431251922485394E-3</v>
       </c>
       <c r="P56" s="36">
-        <f>D56*250</f>
+        <f t="shared" si="6"/>
         <v>9250</v>
       </c>
       <c r="Q56" s="39">
-        <f>ABS(P56-B56)/B56</f>
+        <f t="shared" si="7"/>
         <v>1.4581450969970768</v>
       </c>
     </row>
@@ -7276,7 +7276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F85D94-125B-480E-B197-8044C0D76B30}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C2:C54"/>
     </sheetView>
   </sheetViews>
